--- a/biology/Histoire de la zoologie et de la botanique/Franz_Xaver_Fieber/Franz_Xaver_Fieber.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Franz_Xaver_Fieber/Franz_Xaver_Fieber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Franz Xaver Fieber, né le 1er mars 1807 à Prague et mort le 22 février 1872 à Chrudim, est un naturaliste et entomologiste austro-hongrois. Il fait partie des entomologistes amateurs qui ont posé les bases de l'entomologie systématique au XIXe siècle[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franz Xaver Fieber, né le 1er mars 1807 à Prague et mort le 22 février 1872 à Chrudim, est un naturaliste et entomologiste austro-hongrois. Il fait partie des entomologistes amateurs qui ont posé les bases de l'entomologie systématique au XIXe siècle.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de Franz Anton Fieber et de Maria Anna née Hantsehl. Il étudie à l'Institut polytechnique de Prague de 1824 à 1828. Il commence à travailler dans la finance avant de devenir magistrat à Chrudim en Bohême. Se tournant vers les sciences naturelles, il dessine notamment des planches de botanique pour K. Presl, Jacob Sturm, Kaspar Graf von Sternberg. Il participe à une publication sur la Flore de Bohème et son nom est associé à des formes ou variétés de Potamogeton, d'œillet et de d'iris[2]. À partir de 1832, il se consacre à l'entomologie, en particulier aux hémiptères[1], surtout les hétéroptères (Nepomorpha, Miridae, etc.), mais également les dermaptères (perce-oreilles), appelés alors orthoptères. 
-Il est membre de l'Académie allemande des sciences Leopoldina. Il est notamment l’auteur de Die europäischen Hemiptera (1860) et de plusieurs autres publications[1]. Une partie de sa collection a été accueillie au Muséum d'histoire naturelle de Paris[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Franz Anton Fieber et de Maria Anna née Hantsehl. Il étudie à l'Institut polytechnique de Prague de 1824 à 1828. Il commence à travailler dans la finance avant de devenir magistrat à Chrudim en Bohême. Se tournant vers les sciences naturelles, il dessine notamment des planches de botanique pour K. Presl, Jacob Sturm, Kaspar Graf von Sternberg. Il participe à une publication sur la Flore de Bohème et son nom est associé à des formes ou variétés de Potamogeton, d'œillet et de d'iris. À partir de 1832, il se consacre à l'entomologie, en particulier aux hémiptères, surtout les hétéroptères (Nepomorpha, Miridae, etc.), mais également les dermaptères (perce-oreilles), appelés alors orthoptères. 
+Il est membre de l'Académie allemande des sciences Leopoldina. Il est notamment l’auteur de Die europäischen Hemiptera (1860) et de plusieurs autres publications. Une partie de sa collection a été accueillie au Muséum d'histoire naturelle de Paris. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Quelques œuvres importantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1851. « Genera Hydrocoridum secundum ordinem naturalem in familias disposita ». Actes de la Société royale des sciences de Bohême, Prague, sur les Nepomorpha, alors appelés Hydrocorises (lire en ligne).
 1853. « Synopsis der europäischen Orthopteren ». Lotos, Zeitschrift für Naturwissenschaften 3: 252–258, Prague. (lire en ligne), sur les Dermaptères.
@@ -577,7 +593,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs taxons (tribu, genre, espèces) ont été nommés en hommage à ce naturaliste: 
 la tribu des Fieberiellini Wagner 1951 (Deltocephalinae, Cicadellidae, Hémiptères)
